--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3832.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3832.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.389832565520643</v>
+        <v>4.532163619995117</v>
       </c>
       <c r="B1">
-        <v>2.316883950171192</v>
+        <v>4.634356021881104</v>
       </c>
       <c r="C1">
-        <v>5.051375678727119</v>
+        <v>8.386774063110352</v>
       </c>
       <c r="D1">
-        <v>3.156299167187362</v>
+        <v>8.699810981750488</v>
       </c>
       <c r="E1">
-        <v>0.9548957110347954</v>
+        <v>5.106639862060547</v>
       </c>
     </row>
   </sheetData>
